--- a/data/trans_bre/CONS_TIR-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>128,1%</t>
+          <t>782,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>730,19%</t>
+          <t>656,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>644,5%</t>
+          <t>133,15%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,86</t>
+          <t>3,2; 6,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,56</t>
+          <t>5,35; 11,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,84</t>
+          <t>0,64; 5,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 387,74</t>
+          <t>329,42; 2371,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>258,33; 1955,01</t>
+          <t>237,84; 2227,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>271,09; 1538,5</t>
+          <t>12,99; 364,43</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1977,11%</t>
+          <t>392,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>613,23%</t>
+          <t>557,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>365,29%</t>
+          <t>5401,35%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,72</t>
+          <t>4,28; 9,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,03</t>
+          <t>3,26; 8,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,26</t>
+          <t>3,33; 7,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>124,89; 1194,85</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112,95; 2025,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>204,09; 1758,15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>126,56; 910,07</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>11,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>421,0%</t>
+          <t>664,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1755,19%</t>
+          <t>5354,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>552,57%</t>
+          <t>233,45%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 8,72</t>
+          <t>5,4; 11,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,08</t>
+          <t>6,95; 17,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 10,31</t>
+          <t>0,35; 8,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,4; 1742,65</t>
+          <t>251,41; 1666,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>408,54; 7762,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>234,21; 1093,49</t>
+          <t>-10,84; 1357,45</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,65</t>
+          <t>37,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>341,12%</t>
+          <t>391,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>994,22%</t>
+          <t>2237,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>313,73%</t>
+          <t>249,32%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,48</t>
+          <t>3,93; 8,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 44,13</t>
+          <t>7,07; 72,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,38</t>
+          <t>2,5; 7,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>120,22; 836,85</t>
+          <t>175,52; 846,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>333,74; 3503,67</t>
+          <t>378,91; 11145,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>154,96; 619,53</t>
+          <t>65,56; 669,29</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>575,51%</t>
+          <t>443,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>478,55%</t>
+          <t>274,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>390,75%</t>
+          <t>589,87%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,94</t>
+          <t>4,68; 10,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,79</t>
+          <t>1,61; 10,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,55</t>
+          <t>2,97; 9,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>127,59; 3022,75</t>
+          <t>115,96; 1339,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>187,44; 1111,03</t>
+          <t>29,69; 1148,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>141,19; 1031,66</t>
+          <t>54,57; 2988,29</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-40,14%</t>
+          <t>293,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>146,45%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>572,93%</t>
+          <t>-71,08%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 8,24</t>
+          <t>1,58; 6,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 6,34</t>
+          <t>-6,53; 5,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,89</t>
+          <t>-36,08; 4,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>30,22; 1735,52</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-54,96; 571,46</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-32,24; 1077,68</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>104,51; 2593,45</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,56</t>
+          <t>15,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>323,71%</t>
+          <t>468,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>672,32%</t>
+          <t>1090,19%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>419,78%</t>
+          <t>273,25%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,14</t>
+          <t>5,15; 7,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 19,34</t>
+          <t>6,17; 41,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 6,51</t>
+          <t>3,1; 5,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>189,11; 520,97</t>
+          <t>305,54; 705,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>407,82; 1548,11</t>
+          <t>370,41; 3825,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>289,01; 581,5</t>
+          <t>135,99; 478,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_TIR-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>782,55%</t>
+          <t>553,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,47</t>
+          <t>3,1; 6,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,35; 11,29</t>
+          <t>5,28; 11,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>329,42; 2371,56</t>
+          <t>221,88; 1572,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>237,84; 2227,23</t>
+          <t>234,66; 2119,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>392,73%</t>
+          <t>432,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,62</t>
+          <t>4,25; 9,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,51</t>
+          <t>3,19; 8,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>124,89; 1194,85</t>
+          <t>138,65; 1248,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>112,95; 2025,32</t>
+          <t>104,82; 2306,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>664,66%</t>
+          <t>748,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,93</t>
+          <t>6,03; 14,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 17,55</t>
+          <t>6,66; 16,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>251,41; 1666,1</t>
+          <t>300,36; 1794,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>391,14%</t>
+          <t>205,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,03</t>
+          <t>2,12; 5,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 72,36</t>
+          <t>6,96; 75,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>175,52; 846,45</t>
+          <t>68,44; 487,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>378,91; 11145,09</t>
+          <t>373,03; 12955,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>443,99%</t>
+          <t>456,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 10,06</t>
+          <t>5,01; 9,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 10,09</t>
+          <t>1,24; 9,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>115,96; 1339,53</t>
+          <t>164,38; 1317,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,69; 1148,93</t>
+          <t>22,89; 1116,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>293,27%</t>
+          <t>374,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,11</t>
+          <t>1,76; 5,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 5,97</t>
+          <t>-7,47; 5,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,22; 1735,52</t>
+          <t>20,19; 2150,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 571,46</t>
+          <t>-60,78; 566,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>468,02%</t>
+          <t>403,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,1</t>
+          <t>4,56; 6,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,17; 41,59</t>
+          <t>6,3; 38,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>305,54; 705,71</t>
+          <t>269,54; 616,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>370,41; 3825,55</t>
+          <t>417,03; 3626,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_TIR-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,01</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>4,52</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>656,06%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>133,15%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>553,73%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>656,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>133,15%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>5,37; 11,49</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 5,55</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>3,1; 6,38</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,28; 11,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 5,55</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>232,09; 2043,68</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12,99; 364,43</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>221,88; 1572,49</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>234,66; 2119,12</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>12,99; 364,43</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>6,6</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,31</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>578,34%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5401,35%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>432,49%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>557,26%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5401,35%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,24; 8,68</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 7,7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>4,25; 9,12</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 8,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 7,7</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>119,37; 2292,51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>138,65; 1248,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>104,82; 2306,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>10,8</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>9,19</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3354,29%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>233,45%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>748,24%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5354,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>233,45%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,6; 16,49</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 8,02</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>6,03; 14,04</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 16,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 8,02</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 1357,45</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>300,36; 1794,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 1357,45</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,77</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>37,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>514,13%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>249,32%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>205,95%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2237,36%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>249,32%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5,51; 10,55</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 7,68</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,12; 5,64</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,96; 75,46</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 7,68</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>201,08; 1269,91</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>65,56; 669,29</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>68,44; 487,54</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>373,03; 12955,02</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>65,56; 669,29</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,97</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>7,22</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,88</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>281,79%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>589,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>456,57%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>274,95%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>589,87%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>2,87; 8,74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 9,79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>5,01; 9,58</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 9,99</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 9,79</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>56,35; 852,41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54,57; 2988,29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>164,38; 1317,78</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>22,89; 1116,98</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>54,57; 2988,29</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-5,86</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4,02</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-5,86</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>77,17%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-71,08%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>374,41%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>51,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-71,08%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-4,87; 6,67</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-36,08; 4,58</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,76; 5,94</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; 5,82</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-36,08; 4,58</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-51,51; 672,53</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>20,19; 2150,38</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-60,78; 566,9</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>5,41</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>15,22</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,36</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>451,03%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>273,25%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>403,38%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1090,19%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>273,25%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5,46; 7,79</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 5,7</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>4,56; 6,32</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 38,28</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,1; 5,7</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>252,2; 728,84</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>135,99; 478,53</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>269,54; 616,25</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>417,03; 3626,85</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>135,99; 478,53</t>
         </is>
       </c>
     </row>
